--- a/tests/testthat/fixtures/ex3/tables/irt_dich_booklet2.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/irt_dich_booklet2.xlsx
@@ -501,25 +501,25 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D2" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E2" t="n">
-        <v>81.1</v>
+        <v>80.99</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.76</v>
+        <v>-1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="H2" t="n">
         <v>0.99</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
       <c r="J2" t="n">
         <v>0.26</v>
@@ -528,7 +528,7 @@
         <v>0.06</v>
       </c>
       <c r="L2" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="3">
@@ -539,34 +539,34 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D3" t="n">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E3" t="n">
-        <v>48.33</v>
+        <v>48.62</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="G3" t="n">
         <v>0.08</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="L3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="4">
@@ -577,13 +577,13 @@
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D4" t="n">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E4" t="n">
-        <v>18.63</v>
+        <v>18.54</v>
       </c>
       <c r="F4" t="n">
         <v>1.78</v>
@@ -595,7 +595,7 @@
         <v>1.03</v>
       </c>
       <c r="I4" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="J4" t="n">
         <v>0.21</v>
@@ -604,7 +604,7 @@
         <v>0.06</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -615,34 +615,34 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D5" t="n">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="E5" t="n">
-        <v>63.19</v>
+        <v>63.76</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.66</v>
+        <v>-0.69</v>
       </c>
       <c r="G5" t="n">
         <v>0.09</v>
       </c>
       <c r="H5" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.31</v>
+        <v>-0.71</v>
       </c>
       <c r="J5" t="n">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L5" t="n">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="6">
@@ -653,16 +653,16 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D6" t="n">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="E6" t="n">
-        <v>55.29</v>
+        <v>55.37</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.25</v>
+        <v>-0.26</v>
       </c>
       <c r="G6" t="n">
         <v>0.09</v>
@@ -671,16 +671,16 @@
         <v>1.03</v>
       </c>
       <c r="I6" t="n">
-        <v>1.02</v>
+        <v>0.81</v>
       </c>
       <c r="J6" t="n">
         <v>0.26</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="7">
@@ -691,16 +691,16 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D7" t="n">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E7" t="n">
-        <v>51.61</v>
+        <v>51.04</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08</v>
+        <v>-0.06</v>
       </c>
       <c r="G7" t="n">
         <v>0.09</v>
@@ -712,13 +712,13 @@
         <v>-0.64</v>
       </c>
       <c r="J7" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="8">
@@ -729,34 +729,34 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D8" t="n">
         <v>567</v>
       </c>
       <c r="E8" t="n">
-        <v>46.91</v>
+        <v>47.62</v>
       </c>
       <c r="F8" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="G8" t="n">
         <v>0.09</v>
       </c>
       <c r="H8" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.74</v>
+        <v>-0.01</v>
       </c>
       <c r="J8" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.85</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="9">
@@ -767,34 +767,34 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D9" t="n">
         <v>485</v>
       </c>
       <c r="E9" t="n">
-        <v>40.62</v>
+        <v>42.47</v>
       </c>
       <c r="F9" t="n">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="G9" t="n">
         <v>0.1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.43</v>
+        <v>-0.01</v>
       </c>
       <c r="J9" t="n">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L9" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>
@@ -842,25 +842,25 @@
         <v>35</v>
       </c>
       <c r="B2" t="n">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C2" t="n">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>6013</v>
+        <v>6044</v>
       </c>
       <c r="E2" t="n">
-        <v>6031</v>
+        <v>6062</v>
       </c>
       <c r="F2" t="n">
-        <v>6073</v>
+        <v>6103</v>
       </c>
       <c r="G2" t="n">
-        <v>0.578</v>
+        <v>0.575</v>
       </c>
       <c r="H2" t="n">
-        <v>0.422</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="3">
@@ -868,25 +868,25 @@
         <v>36</v>
       </c>
       <c r="B3" t="n">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C3" t="n">
         <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>5999</v>
+        <v>6037</v>
       </c>
       <c r="E3" t="n">
-        <v>6031</v>
+        <v>6069</v>
       </c>
       <c r="F3" t="n">
-        <v>6104</v>
+        <v>6143</v>
       </c>
       <c r="G3" t="n">
-        <v>0.59</v>
+        <v>0.581</v>
       </c>
       <c r="H3" t="n">
-        <v>0.421</v>
+        <v>0.405</v>
       </c>
     </row>
   </sheetData>
